--- a/biology/Botanique/Dioscoreaceae/Dioscoreaceae.xlsx
+++ b/biology/Botanique/Dioscoreaceae/Dioscoreaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Dioscoréacées (Dioscoreaceae) sont une famille de plantes monocotylédones.
 C'est la famille des ignames (certaines espèces du genre Dioscorea) qui sont consommées comme substitut de la pomme de terre dans les régions tropicales et sont souvent confondues avec la patate douce.
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre Dioscorea qui a été donné par Carl von Linné en l'honneur de Dioscoride, médecin et botaniste grec du Ier siècle, auteur d'un célèbre traité de « matière médicale » (De Materia Medica).
 </t>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des arbustes, des plantes herbacées ou  des lianes, rhizomateuses ou tubéreuses. Ce sont souvent des plantes dioïques, à fleurs petites, trimères, unisexuées. Les fruits sont des samares à trois ailes, rarement des baies (tamier) ; les graines sont souvent ailées. Certaines espèces, notamment de Dioscorea, contiennent des saponosides stéroïdiques.
 </t>
@@ -575,9 +591,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG II (2003)[1] étend cette famille pour inclure les plantes précédemment placées dans des familles particulières des Taccaceae et des Trichopodaceae.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG II (2003) étend cette famille pour inclure les plantes précédemment placées dans des familles particulières des Taccaceae et des Trichopodaceae.
 </t>
         </is>
       </c>
@@ -606,21 +624,23 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (19 mai 2010)[2] (870 espèces), World Checklist of Selected Plant Families (WCSP)  (20 juillet 2017)[3] et NCBI  (20 juillet 2017)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (19 mai 2010) (870 espèces), World Checklist of Selected Plant Families (WCSP)  (20 juillet 2017) et NCBI  (20 juillet 2017) :
 genre Dioscorea Plum. ex L. (1753)
 genre Stenomeris Planch., Ann. Sci. Nat. (1852)
 genre Tacca J.R.Forst. &amp; G.Forst. (1775)
 genre Trichopus Gaertn. (1788)
-Selon DELTA Angio           (15 avr. 2010)[5], 750 espèces :
+Selon DELTA Angio           (15 avr. 2010), 750 espèces :
 genre Borderea
 genre Dioscorea
 genre Epipetrum
 genre Rajania
 genre Stenomeris
 genre Tamus genre considéré comme obselète depuis 2002. Ses espèces ont été intégrées au genre Dioscorea)
-Selon ITIS      (15 avr. 2010)[6] :
+Selon ITIS      (15 avr. 2010) :
 genre Dioscorea L.
 genre Rajania L.</t>
         </is>
